--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satbir\OneDrive\Desktop\BOT for form filling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satbir.malli\Desktop\BOT-for-form-filling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F4CD7E-9FB4-444F-9B4B-CFC539EF2BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB167698-9A8E-4A2F-9E26-21B180CDC029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{144B460E-066D-4F92-A519-FCC105990CD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{144B460E-066D-4F92-A519-FCC105990CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="File Format" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="115">
   <si>
     <t>Illinois</t>
   </si>
@@ -487,10 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -847,68 +846,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4C4AA7-302A-4045-AA1C-608CDBC1B5FD}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" customWidth="1"/>
+    <col min="7" max="7" width="49.36328125" customWidth="1"/>
+    <col min="8" max="8" width="34.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -917,7 +916,7 @@
       <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="1">
@@ -951,8 +950,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -961,7 +960,7 @@
       <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="1">
@@ -995,12 +994,797 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1">
+        <v>51658765</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
@@ -1009,9 +1793,27 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{608A17D9-FD44-4DAC-A62C-836429FB6CB9}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{B0E1A843-99B9-4BD7-8AFC-A1B25943E653}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{D3151383-9614-4163-B6F2-AB3B1ECA8705}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{7A352DA1-F82A-4ACC-B09B-F9697FA6A89D}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{CD7AECD0-4B07-497A-8EE7-9A98C19784F1}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{776A3192-53B7-48CE-8342-70562AA7AE88}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{B6B41437-1304-4070-BF61-FFEAB6854D3F}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{1DEB6DD3-3776-4BCF-842F-D7DA99E0FEAF}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{B96C9731-02D7-4E47-9B37-E8F06E14537E}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{A7EE59B6-7FAF-4300-AF60-1EF3E96A717E}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{15B4EF07-2947-476E-9F44-57745EF44962}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{F855AEA1-0F3F-4783-B223-1A2DD9B6A06B}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{749B52D5-C01E-46F0-9C4B-DB5A21A2A1A9}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{7B1453DD-6502-4DEC-86A9-2FA73F4788ED}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{22BECCF4-A6D1-42A2-8D3F-1C64486544FA}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{1DE648D8-DF48-428F-913C-DB5284A7E47A}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{75EC5E6E-735B-4E00-8ACB-04ABDF4A591E}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{A7AC5D8F-1CAE-4810-AB0D-3C82D622B1EF}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{565DA104-3B58-4B0B-9483-04AE4F74382E}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{4991005E-52D7-4A41-A6C2-ACCCDC08EA38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1023,31 +1825,31 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1075,7 +1877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1086,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>48</v>
       </c>
@@ -1105,7 +1907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1113,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1121,7 +1923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -1137,7 +1939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -1145,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1161,7 +1963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -1169,7 +1971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -1177,7 +1979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -1185,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -1193,7 +1995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -1201,7 +2003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1209,7 +2011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -1217,7 +2019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>61</v>
       </c>
@@ -1225,7 +2027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>62</v>
       </c>
@@ -1233,7 +2035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -1249,7 +2051,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1257,7 +2059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +2067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +2075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>66</v>
       </c>
@@ -1281,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>67</v>
       </c>
@@ -1289,127 +2091,127 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>100</v>
       </c>
